--- a/data/lsd/extractions/251106 Fiche d'extraction d'échantillons.xlsx
+++ b/data/lsd/extractions/251106 Fiche d'extraction d'échantillons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/extractions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/lsd/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{72DD9CA6-1D4E-42E9-B704-76611D56213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F770B4C2-B362-46B8-8A6F-FAB2E7154090}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{72DD9CA6-1D4E-42E9-B704-76611D56213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A92157-AB0B-4F2A-8CD7-7947C415A9E6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Extractions" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="6">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="E15" s="1">
         <v>35</v>
@@ -1856,6 +1856,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="93e6b79bffcb710984822118ae45b29f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c971e98cb6cdb6e05177eaad282d8065" ns2:_="">
     <xsd:import namespace="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
@@ -2033,15 +2042,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2054,6 +2054,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6523F0-17E5-42E2-856B-2B0FE7534E16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57552BDF-2EA1-4C3A-9C21-8F7A63E67807}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2071,14 +2079,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6523F0-17E5-42E2-856B-2B0FE7534E16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A18A3CD-4F50-4FB5-812F-9895DFEB3280}">
   <ds:schemaRefs>
